--- a/pygribにおける気象庁数値予報モデルの変数.xlsx
+++ b/pygribにおける気象庁数値予報モデルの変数.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56d729f7e3302db0/Document/GitHub/meteo_samples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Profiles\1891010\Documents\GitHub\meteo_samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_AD4D066CA252ABDACC104854D914DA3A73EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B74CA6E-3C43-4D1F-8C9F-A366A701E45B}"/>
   <bookViews>
-    <workbookView xWindow="32190" yWindow="450" windowWidth="20505" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32190" yWindow="450" windowWidth="20510" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>GSM</t>
     <phoneticPr fontId="1"/>
@@ -134,13 +133,32 @@
   </si>
   <si>
     <t>V component of wind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>降水量</t>
+    <rPh sb="0" eb="3">
+      <t>コウスイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parameterName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Total precipitation</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -458,18 +476,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -550,6 +568,20 @@
       </c>
       <c r="D7" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/pygribにおける気象庁数値予報モデルの変数.xlsx
+++ b/pygribにおける気象庁数値予報モデルの変数.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32190" yWindow="450" windowWidth="20510" windowHeight="14040"/>
+    <workbookView minimized="1" xWindow="32190" yWindow="450" windowWidth="20510" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>GSM</t>
     <phoneticPr fontId="1"/>
@@ -152,6 +152,126 @@
   </si>
   <si>
     <t>Total precipitation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>降水量</t>
+    <rPh sb="0" eb="3">
+      <t>コウスイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parameterName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Total precipitation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下向き短波放射</t>
+    <rPh sb="0" eb="2">
+      <t>シタム</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンパ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Downward short-wave radiation flux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2m東西風速</t>
+    <rPh sb="2" eb="4">
+      <t>トウザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フウソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2m南北風速</t>
+    <rPh sb="2" eb="4">
+      <t>ナンボク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フウソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10 metre U wind component</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10 metre V wind component</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地表面気圧</t>
+    <rPh sb="0" eb="3">
+      <t>チヒョウメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Surface pressure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海面更正気圧</t>
+    <rPh sb="0" eb="2">
+      <t>カイメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pressure reduced to MSL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2m気温</t>
+    <rPh sb="2" eb="4">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2 metre temperature</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総雲量</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ウンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Total cloud cover</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -159,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +289,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -195,8 +323,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -477,17 +606,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="23.08203125" customWidth="1"/>
+    <col min="4" max="4" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -570,23 +699,116 @@
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1">
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1">
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1">
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D17" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pygribにおける気象庁数値予報モデルの変数.xlsx
+++ b/pygribにおける気象庁数値予報モデルの変数.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Profiles\1891010\Documents\GitHub\meteo_samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56d729f7e3302db0/Document/GitHub/meteo_samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_AC9EBDC2409712A5B6F97C39BB6DFC73AFCA6671" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5403DC34-1430-4D2B-A556-48EBC7B71BC5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="32190" yWindow="450" windowWidth="20510" windowHeight="14040"/>
+    <workbookView xWindow="32190" yWindow="450" windowWidth="20505" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,26 +192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2m東西風速</t>
-    <rPh sb="2" eb="4">
-      <t>トウザイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>フウソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2m南北風速</t>
-    <rPh sb="2" eb="4">
-      <t>ナンボク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>フウソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10 metre U wind component</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -272,13 +253,33 @@
   </si>
   <si>
     <t>Total cloud cover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10m東西風速</t>
+    <rPh sb="3" eb="5">
+      <t>トウザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フウソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10m南北風速</t>
+    <rPh sb="3" eb="5">
+      <t>ナンボク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フウソク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -605,17 +606,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -723,68 +724,68 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1">
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1">
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1">
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4">
